--- a/Get the Workbook and Sheet Name With a Formula.xlsx
+++ b/Get the Workbook and Sheet Name With a Formula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrixon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>https://github.com/ExcelTitan/Excel_Formulas</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>="'"&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)&amp;"'!"</t>
+  </si>
+  <si>
+    <t>Get the file name of this workbook without the file extension</t>
+  </si>
+  <si>
+    <t>=MID(CELL("filename",A1),SEARCH("[",CELL("filename",A1))+1,SEARCH(".",CELL("filename",A1))-1-SEARCH("[",CELL("filename",A1)))</t>
   </si>
 </sst>
 </file>
@@ -146,38 +152,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,89 +519,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -622,17 +634,17 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -652,7 +664,7 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="str">
         <f ca="1">CELL("filename",A1)</f>
-        <v>H:\Formulas\[Get the Workbook and Sheet Name With a Formula.xlsx]Sheet1</v>
+        <v>C:\Users\mrixon\Downloads\[Get the Workbook and Sheet Name With a Formula.xlsx]Sheet1</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -665,20 +677,33 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
@@ -697,7 +722,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -711,17 +736,17 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
@@ -740,8 +765,8 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
-        <f ca="1">RIGHT(CELL("Filename",A1),LEN(CELL("Filename",A1))-FIND("]",CELL("Filename",A1)))</f>
-        <v>Sheet1</v>
+        <f ca="1">MID(CELL("filename",A1),SEARCH("[",CELL("filename",A1))+1,SEARCH(".",CELL("filename",A1))-1-SEARCH("[",CELL("filename",A1)))</f>
+        <v>Get the Workbook and Sheet Name With a Formula</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -754,33 +779,20 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -799,7 +811,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -813,17 +825,17 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
@@ -842,8 +854,8 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="str">
-        <f ca="1">"'"&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)&amp;"'!"</f>
-        <v>'Sheet1'!</v>
+        <f ca="1">RIGHT(CELL("Filename",A1),LEN(CELL("Filename",A1))-FIND("]",CELL("Filename",A1)))</f>
+        <v>Sheet1</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -856,27 +868,134 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="str">
+        <f ca="1">"'"&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)&amp;"'!"</f>
+        <v>'Sheet1'!</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
